--- a/output/fit_clients/fit_round_271.xlsx
+++ b/output/fit_clients/fit_round_271.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1751581325.092173</v>
+        <v>2251644186.186104</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07587742758001531</v>
+        <v>0.1020394413994807</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03919337746590427</v>
+        <v>0.04467370671876769</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>875790624.7540035</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2629535570.08157</v>
+        <v>1615170037.653693</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1498419091237852</v>
+        <v>0.1482335609248205</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03704965032554193</v>
+        <v>0.04016524912958808</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1314767922.589251</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3892798010.323055</v>
+        <v>4876257318.390456</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1275675721056899</v>
+        <v>0.1070963620164043</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03583862821490276</v>
+        <v>0.03795353383936487</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>98</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1946399011.743776</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4080108367.469442</v>
+        <v>3447612887.586252</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07143289343984886</v>
+        <v>0.07488128536115055</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03340416477846039</v>
+        <v>0.04856690737065137</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>100</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2040054182.100024</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2506655653.292065</v>
+        <v>1878886590.922055</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1283125615935527</v>
+        <v>0.1464662655926958</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03945639909956576</v>
+        <v>0.04049482790968788</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>47</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1253327801.405949</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2101729892.781763</v>
+        <v>2012474183.102542</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08190705778193606</v>
+        <v>0.09850299295009129</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0334952746046917</v>
+        <v>0.04680689924476364</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>85</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1050864997.734932</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3153241290.798593</v>
+        <v>3671801368.412088</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1496751294242637</v>
+        <v>0.1949949031250277</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03245127212098436</v>
+        <v>0.02596758199685203</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>86</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1576620718.572966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1735583897.204005</v>
+        <v>1983575865.229988</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1200647083615199</v>
+        <v>0.159256313554711</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02251008371073706</v>
+        <v>0.03603043719771563</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>867792011.8918651</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3595234706.356781</v>
+        <v>4493504663.769802</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1713530831078263</v>
+        <v>0.183428581362978</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05264424269811607</v>
+        <v>0.04148422377652252</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>114</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1797617343.722476</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3166087055.151</v>
+        <v>4012748792.889593</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1804829482906852</v>
+        <v>0.1724279000700287</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03749021348148247</v>
+        <v>0.04018447808302036</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>112</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1583043482.067954</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3150158097.370599</v>
+        <v>2021658899.385767</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1429778340146989</v>
+        <v>0.1319227921440933</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05322852834523446</v>
+        <v>0.03569591896700674</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>92</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1575079080.454711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3345585963.078827</v>
+        <v>3795493257.831098</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07003293601032415</v>
+        <v>0.09782647466088812</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02945030328802394</v>
+        <v>0.03044377571979054</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>91</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1672793069.706677</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2834255576.759774</v>
+        <v>2537553799.137731</v>
       </c>
       <c r="F14" t="n">
-        <v>0.176377476636692</v>
+        <v>0.1684147068842258</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03785614508711718</v>
+        <v>0.03058599639409787</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>90</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1417127834.81909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1595341401.233251</v>
+        <v>1547052382.585902</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09189863089612155</v>
+        <v>0.09529772615908505</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0371797642490404</v>
+        <v>0.03639551298529501</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>797670807.7295697</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2806251451.641569</v>
+        <v>1987050793.893697</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1035259315749911</v>
+        <v>0.07954842203362418</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04672038039529809</v>
+        <v>0.03963142053287184</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>50</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1403125729.286045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3808308170.459742</v>
+        <v>4071756291.208821</v>
       </c>
       <c r="F17" t="n">
-        <v>0.170856686588083</v>
+        <v>0.1472562521528252</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05176086641491331</v>
+        <v>0.03412718918741464</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>79</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1904154129.310875</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3002159039.680429</v>
+        <v>2588568955.322862</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1329007859599619</v>
+        <v>0.179915516969143</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02683618075867834</v>
+        <v>0.03321107503366502</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>89</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1501079549.917156</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>899151891.7373717</v>
+        <v>1212670324.61547</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1419413398564605</v>
+        <v>0.1232837973400728</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01885721889635172</v>
+        <v>0.02231942451063627</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>449575950.5617419</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1717864886.654793</v>
+        <v>2209510866.825797</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1461462352570823</v>
+        <v>0.157741340266759</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0289802857595788</v>
+        <v>0.02125389248505813</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>42</v>
-      </c>
-      <c r="J20" t="n">
-        <v>858932499.7293506</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2061686858.698336</v>
+        <v>2494709709.297733</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07853778362820475</v>
+        <v>0.09606539217103729</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03738525159438034</v>
+        <v>0.0413599801834359</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>21</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1030843459.370336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3902848616.328031</v>
+        <v>3598427376.2961</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1412158355987104</v>
+        <v>0.1204949910301663</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04514882174285076</v>
+        <v>0.05669483415915808</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>75</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1951424315.625857</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1344625244.424832</v>
+        <v>1281188720.545537</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1128682668478134</v>
+        <v>0.1154162605179863</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04033479553023241</v>
+        <v>0.03901551872163594</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>672312634.3257531</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4081657312.00868</v>
+        <v>2963431887.230883</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09722198825465792</v>
+        <v>0.1085670761290088</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03005932864409384</v>
+        <v>0.03309320731279924</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>80</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2040828618.50295</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>964006861.2613305</v>
+        <v>1119822719.92626</v>
       </c>
       <c r="F25" t="n">
-        <v>0.100212585311372</v>
+        <v>0.1042963029366675</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02880866820017336</v>
+        <v>0.02675634531593266</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>482003502.8973489</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1203936591.496459</v>
+        <v>1165016484.957607</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1106095566817071</v>
+        <v>0.1008275686003761</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03864287357913897</v>
+        <v>0.03070206379295244</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>601968317.712566</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2954486334.763865</v>
+        <v>3891935434.333262</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09687411189649411</v>
+        <v>0.1203060510864253</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02320063509500392</v>
+        <v>0.02666988551554422</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1477243229.445919</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2717113118.992532</v>
+        <v>3376940630.754784</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1072259941647029</v>
+        <v>0.1414502989116185</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04534151154685058</v>
+        <v>0.03676914717544712</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>88</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1358556546.152539</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5515969612.900358</v>
+        <v>5443061527.750645</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1424531208270306</v>
+        <v>0.1136662553852893</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0390953649486413</v>
+        <v>0.03612927793999706</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>120</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2757984718.238132</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2221754965.546379</v>
+        <v>1605532661.014938</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1317567801883326</v>
+        <v>0.1378323795976</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03558832871944088</v>
+        <v>0.03110403114243352</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1110877545.516006</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1082776721.302092</v>
+        <v>1116779100.467985</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07199838424117558</v>
+        <v>0.112108681587968</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0503398052825248</v>
+        <v>0.04442960088720928</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>541388339.707652</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1227661131.570718</v>
+        <v>1737797422.697489</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1179454582103318</v>
+        <v>0.09745607591322611</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02785999173295777</v>
+        <v>0.03728256070783907</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>613830577.7346081</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2392025336.2024</v>
+        <v>2835349388.355591</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2063420953878815</v>
+        <v>0.1409391562177865</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04837719956981241</v>
+        <v>0.04735193853944642</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>83</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1196012715.503274</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1448218306.376909</v>
+        <v>1125376703.143566</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1109260628702748</v>
+        <v>0.11745684769066</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01970388852832255</v>
+        <v>0.02648576607718868</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>724109117.5782932</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1188068631.520241</v>
+        <v>916683791.4738737</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1151976700749576</v>
+        <v>0.07676069645688297</v>
       </c>
       <c r="G35" t="n">
-        <v>0.032024699011445</v>
+        <v>0.03314481301954656</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>594034293.0920957</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2216347127.340657</v>
+        <v>2802558360.933369</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1114160600238769</v>
+        <v>0.1628761964344685</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02175377811036845</v>
+        <v>0.02508458759979902</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>67</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1108173608.371864</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2804765705.058633</v>
+        <v>1855279655.110294</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09629287228425086</v>
+        <v>0.09514708562039893</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02677486295589794</v>
+        <v>0.03462672671207748</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>71</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1402382990.544092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1323306955.98372</v>
+        <v>1912624140.813535</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08187243935792153</v>
+        <v>0.07785140106019368</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02911669454460257</v>
+        <v>0.03002059271785731</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>661653552.2071975</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2124043506.164384</v>
+        <v>1726628971.46835</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1548632895352025</v>
+        <v>0.1225454041259068</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02867940785885888</v>
+        <v>0.02616795957404639</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1062021728.789311</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1551939656.064706</v>
+        <v>1462054662.492785</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1529366627192342</v>
+        <v>0.1463458266311988</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03689405604453796</v>
+        <v>0.04206086148136487</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>775969781.2286348</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2914423731.756549</v>
+        <v>2305468398.367806</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1171606943999791</v>
+        <v>0.1184728283051457</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04117569725236352</v>
+        <v>0.04550092517807078</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>66</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1457211850.585404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3095630892.763734</v>
+        <v>3436769125.248187</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1241927560981357</v>
+        <v>0.1016826963847716</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03021051413909284</v>
+        <v>0.02970638595429734</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>92</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1547815413.422624</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2712558728.305374</v>
+        <v>2161925214.683913</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1618269298575404</v>
+        <v>0.1519958390331531</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02573022627699291</v>
+        <v>0.01905194633032647</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>98</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1356279391.422607</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2210711670.147836</v>
+        <v>1714559449.814247</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07786964375192663</v>
+        <v>0.08452167986603057</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02368561400398227</v>
+        <v>0.03256960913549003</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1105355983.446304</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1551047595.281862</v>
+        <v>2230773317.897194</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1769142916836497</v>
+        <v>0.1847895620938167</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04974423772671557</v>
+        <v>0.05129753325036662</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>775523743.2326697</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3865692782.684117</v>
+        <v>3774913642.770409</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1425462125406551</v>
+        <v>0.1735416160082345</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04888019076637536</v>
+        <v>0.05417607112784726</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>96</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1932846353.217018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5096087346.579996</v>
+        <v>3765038206.526241</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1457654488874319</v>
+        <v>0.1943822723383753</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04222230025360484</v>
+        <v>0.03938875009232816</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>73</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2548043734.527809</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3729695000.882409</v>
+        <v>4525958144.697017</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06998028775780844</v>
+        <v>0.09151076761313384</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03056961613006345</v>
+        <v>0.02896412145628654</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>91</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1864847550.498565</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1903059876.171626</v>
+        <v>1524936141.909564</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1470569115891682</v>
+        <v>0.1612942294406128</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03227029274301679</v>
+        <v>0.04279134422063982</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>951529907.4513932</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4201338084.868041</v>
+        <v>3099140938.17683</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1073605006199173</v>
+        <v>0.1506667306821865</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03415342137160733</v>
+        <v>0.03303241428325514</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>92</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2100669016.794616</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1418538052.963767</v>
+        <v>1194944838.072187</v>
       </c>
       <c r="F51" t="n">
-        <v>0.124369149682369</v>
+        <v>0.1659959442947176</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0475252872599812</v>
+        <v>0.0514979677232354</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>709269042.6039335</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4228074590.75535</v>
+        <v>4383761634.635001</v>
       </c>
       <c r="F52" t="n">
-        <v>0.123284787263242</v>
+        <v>0.130754774622954</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04718029401426385</v>
+        <v>0.05175531044852953</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>112</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2114037338.432221</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3487250772.804468</v>
+        <v>3648278135.334374</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1758519948842227</v>
+        <v>0.1685820384190806</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0335393987709723</v>
+        <v>0.03284512015382902</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>77</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1743625385.159388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3822177067.579588</v>
+        <v>3677157095.45904</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1352633815662109</v>
+        <v>0.12940388844128</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04297957630218846</v>
+        <v>0.04292637616315285</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>90</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1911088583.907578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4931776406.431389</v>
+        <v>3386679357.935719</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2046366535034747</v>
+        <v>0.1954356576541055</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03003774325154986</v>
+        <v>0.03025659757437451</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2465888219.243296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1548353954.094091</v>
+        <v>1224644827.167708</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1200224498695315</v>
+        <v>0.147278202360925</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04965419756698979</v>
+        <v>0.03544878757656026</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>774177012.1474832</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4231499828.976124</v>
+        <v>4107388361.423327</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1656982476895857</v>
+        <v>0.1662236175969906</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01922044009538228</v>
+        <v>0.01871550852337118</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>87</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2115750022.287726</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1527809533.167077</v>
+        <v>1867747724.79219</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2026947123423579</v>
+        <v>0.1825952501221887</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02711923341323179</v>
+        <v>0.03010505760528887</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>763904795.1689949</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3791723279.236887</v>
+        <v>4547615056.06924</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08498086197359211</v>
+        <v>0.0908737003181818</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04516679443673566</v>
+        <v>0.03479877067009819</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>76</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1895861625.614444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2754488722.855173</v>
+        <v>2766726182.548693</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2007417876007846</v>
+        <v>0.1606493852432902</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02362495851836762</v>
+        <v>0.03235928454241248</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>84</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1377244406.022944</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2937807178.497394</v>
+        <v>3364015695.249817</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1587512920908598</v>
+        <v>0.1616842740245891</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02300827867399839</v>
+        <v>0.03275539389224135</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>93</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1468903575.57074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1410047884.676414</v>
+        <v>1326831796.724241</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1628120474673821</v>
+        <v>0.1610244587295825</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03173398940454378</v>
+        <v>0.04301441423930787</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>705023911.906342</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3907113899.616065</v>
+        <v>5271823861.322383</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08987867681168062</v>
+        <v>0.1024638878714171</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04205241184604434</v>
+        <v>0.03944973598394688</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>78</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1953557016.320009</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3795627400.654778</v>
+        <v>3963278668.709229</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1635526550487261</v>
+        <v>0.1182493032317285</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02542323653108131</v>
+        <v>0.02258476036585896</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>84</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1897813721.800207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5413685761.880536</v>
+        <v>4000138533.511141</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1507738355481384</v>
+        <v>0.1469037340887302</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02351439040421395</v>
+        <v>0.02752862299846094</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>97</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2706842815.166022</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5066184087.82268</v>
+        <v>4472354298.510008</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1505928095784229</v>
+        <v>0.1218514869715574</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0337805232819435</v>
+        <v>0.03982520548613062</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>79</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2533092074.597752</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3069153412.057295</v>
+        <v>2992054864.53011</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0800345810729438</v>
+        <v>0.0968057158536923</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04010148333207145</v>
+        <v>0.03906604666631321</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>87</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1534576718.439101</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5175525695.137038</v>
+        <v>4341059150.935563</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1598114938151063</v>
+        <v>0.1596876203854095</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03543693870611843</v>
+        <v>0.03162934865738672</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>87</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2587762914.597093</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2265322709.282481</v>
+        <v>2347243471.730937</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1306324560004986</v>
+        <v>0.1422191664491187</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0489361533041312</v>
+        <v>0.04047386774428167</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1132661393.926111</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2520269752.875572</v>
+        <v>3270704200.118268</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08794263565123051</v>
+        <v>0.1032016566771433</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0325963929766391</v>
+        <v>0.04930490850161455</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>78</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1260134822.276176</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5017020219.686354</v>
+        <v>4399956977.960075</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1225037951358727</v>
+        <v>0.1542962401206134</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02058267330496627</v>
+        <v>0.02676648694245671</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>99</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2508510216.817256</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1575322267.76106</v>
+        <v>1701720245.395802</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06612938671760554</v>
+        <v>0.08913438370887179</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04618368597589123</v>
+        <v>0.04159406144909205</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>787661148.6878322</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2907126821.447224</v>
+        <v>2798628351.21512</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1077036721327772</v>
+        <v>0.08867216887072162</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05113817838505436</v>
+        <v>0.04649305481574942</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>102</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1453563415.203736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2879720792.242094</v>
+        <v>3329024710.708819</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1302580477425457</v>
+        <v>0.120152077100002</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02339405608716622</v>
+        <v>0.02471389177876174</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>92</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1439860471.92541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2148243474.283984</v>
+        <v>2430511795.091051</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1209143074390316</v>
+        <v>0.1039879991317295</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03445859643709866</v>
+        <v>0.02292671689927565</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1074121687.487226</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3269665838.979865</v>
+        <v>5136103823.279271</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09075109705308787</v>
+        <v>0.09549489679385445</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02741864683828229</v>
+        <v>0.02556630427134676</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1634832873.547573</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1867306067.188315</v>
+        <v>2152701286.805115</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1193664627416713</v>
+        <v>0.1839614623838955</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02635810041366519</v>
+        <v>0.02490752898327423</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>933653075.5147074</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3313179545.445098</v>
+        <v>3623824574.780934</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1216889508059889</v>
+        <v>0.1041510716337737</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05584707297541232</v>
+        <v>0.03542926198767443</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>94</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1656589787.575592</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1180101648.802428</v>
+        <v>1848677326.197969</v>
       </c>
       <c r="F79" t="n">
-        <v>0.119795493921286</v>
+        <v>0.1306624663527688</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03533647213611361</v>
+        <v>0.02648508323655243</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>590050802.6224587</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5198152581.345668</v>
+        <v>4751440647.664499</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1107976424764573</v>
+        <v>0.1097047274810985</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0247147988961938</v>
+        <v>0.03279725882768476</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>57</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2599076349.722771</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3184667786.884297</v>
+        <v>4824576750.294794</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1310809698164286</v>
+        <v>0.08500985417563334</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02623130886129539</v>
+        <v>0.02383266083191224</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>64</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1592333826.392139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3689915855.266845</v>
+        <v>5351798107.894618</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1641553476594877</v>
+        <v>0.161414528079395</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02502753713752435</v>
+        <v>0.028389457375381</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>95</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1844957984.690424</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2214289952.336214</v>
+        <v>1534310406.365332</v>
       </c>
       <c r="F83" t="n">
-        <v>0.107125223974673</v>
+        <v>0.1340669260058115</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03871746231175906</v>
+        <v>0.04138141759102855</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1107144988.178225</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2380093702.326061</v>
+        <v>2334967938.504706</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07775744645789275</v>
+        <v>0.07852542265943216</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03683447208212216</v>
+        <v>0.03683739115266717</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1190046800.54627</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3212340419.562054</v>
+        <v>2741078780.387158</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1217942288066752</v>
+        <v>0.1174142456589984</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05059208665954981</v>
+        <v>0.03904752096216484</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>102</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1606170293.361688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2073383064.666806</v>
+        <v>2748008290.610901</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1392399743962157</v>
+        <v>0.1705911944080032</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01919273534265352</v>
+        <v>0.02092103742315098</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>35</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1036691570.141549</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1177247471.998446</v>
+        <v>983398790.9434333</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1837419751125855</v>
+        <v>0.1516134571651549</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03177315644157008</v>
+        <v>0.03951006605916719</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>588623785.7433047</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3263295732.345437</v>
+        <v>3590568696.138217</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1788152890121404</v>
+        <v>0.111097440306033</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03120297190288271</v>
+        <v>0.03215611351484685</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>107</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1631647922.632704</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3517261559.487655</v>
+        <v>3382282624.137542</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1245267847606407</v>
+        <v>0.1174399740077326</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0340520316189583</v>
+        <v>0.03725659389722517</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>92</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1758630779.945693</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1530197145.566158</v>
+        <v>1947666237.334694</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1316022534586775</v>
+        <v>0.09576483636975319</v>
       </c>
       <c r="G90" t="n">
-        <v>0.046843316915624</v>
+        <v>0.04503255467849449</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>765098557.0679533</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1359599229.542804</v>
+        <v>1962967589.752224</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1602614048883715</v>
+        <v>0.1284170567682492</v>
       </c>
       <c r="G91" t="n">
-        <v>0.053994517753953</v>
+        <v>0.05274319851616296</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>679799672.4216038</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2028720181.058446</v>
+        <v>2196692728.017641</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1052180620180825</v>
+        <v>0.0851961005034485</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04385206941686211</v>
+        <v>0.04143534281333486</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>67</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1014360038.856046</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3797096660.309227</v>
+        <v>4473041645.084808</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08854642611460115</v>
+        <v>0.1001890383959837</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05458868541401241</v>
+        <v>0.03981572508317334</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>81</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1898548343.888223</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2342913249.874297</v>
+        <v>2250723953.703437</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1039459202471669</v>
+        <v>0.1280483994696297</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04283113549884467</v>
+        <v>0.03683648712239074</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1171456667.928982</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2708607491.816957</v>
+        <v>3172117533.300618</v>
       </c>
       <c r="F95" t="n">
-        <v>0.108254933776582</v>
+        <v>0.1362532239147517</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04727401848167127</v>
+        <v>0.04622157687477696</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>65</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1354303766.830722</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1459620978.265945</v>
+        <v>1695023682.765866</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1062305106350267</v>
+        <v>0.09546978432425456</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03504658868272007</v>
+        <v>0.04279884527477613</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>729810533.7949073</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3989248957.316099</v>
+        <v>4135838774.956073</v>
       </c>
       <c r="F97" t="n">
-        <v>0.172923805772195</v>
+        <v>0.1425855816970986</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02220833064181897</v>
+        <v>0.02255956066272871</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>87</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1994624534.166131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3404583731.077982</v>
+        <v>2713490474.990954</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1002141912437743</v>
+        <v>0.1057360360334698</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01981176278568587</v>
+        <v>0.0207144207576621</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>74</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1702291877.661296</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2516268531.998924</v>
+        <v>2682460103.391919</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1152361287710171</v>
+        <v>0.09487057732314015</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02826390654167311</v>
+        <v>0.021837641496683</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>86</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1258134216.88569</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4746667123.209592</v>
+        <v>3916603730.491207</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1438527171071329</v>
+        <v>0.112418944016671</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01919092298297224</v>
+        <v>0.02332094582261081</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>85</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2373333691.873814</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2483687671.535429</v>
+        <v>2326359635.87362</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1574470347808601</v>
+        <v>0.2082865019943821</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04965061201751683</v>
+        <v>0.04554767471063235</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>108</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1241843856.631169</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_271.xlsx
+++ b/output/fit_clients/fit_round_271.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2251644186.186104</v>
+        <v>1539506490.579099</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1020394413994807</v>
+        <v>0.09642163102347151</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04467370671876769</v>
+        <v>0.04382536713921013</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1615170037.653693</v>
+        <v>2432089263.824339</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1482335609248205</v>
+        <v>0.1847104734901163</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04016524912958808</v>
+        <v>0.04411643024574238</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4876257318.390456</v>
+        <v>3598269705.021348</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1070963620164043</v>
+        <v>0.1048077938358495</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03795353383936487</v>
+        <v>0.03369532949136703</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3447612887.586252</v>
+        <v>2606736529.053769</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07488128536115055</v>
+        <v>0.07984099962386655</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04856690737065137</v>
+        <v>0.04189291555016769</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1878886590.922055</v>
+        <v>2084104639.279383</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1464662655926958</v>
+        <v>0.1355111160772768</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04049482790968788</v>
+        <v>0.04876947761675824</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2012474183.102542</v>
+        <v>2189294959.575023</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09850299295009129</v>
+        <v>0.07502409747709317</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04680689924476364</v>
+        <v>0.04204401635137864</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3671801368.412088</v>
+        <v>2577370272.456838</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1949949031250277</v>
+        <v>0.1843557526180043</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02596758199685203</v>
+        <v>0.02152413810440351</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,16 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1983575865.229988</v>
+        <v>2298301375.510095</v>
       </c>
       <c r="F9" t="n">
-        <v>0.159256313554711</v>
+        <v>0.1892862822529164</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03603043719771563</v>
+        <v>0.0312474688669898</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4493504663.769802</v>
+        <v>3585316135.37189</v>
       </c>
       <c r="F10" t="n">
-        <v>0.183428581362978</v>
+        <v>0.1725525888691752</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04148422377652252</v>
+        <v>0.0366938471256173</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4012748792.889593</v>
+        <v>4091877806.206059</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1724279000700287</v>
+        <v>0.1858312162631098</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04018447808302036</v>
+        <v>0.03520515029856967</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2021658899.385767</v>
+        <v>2234590587.845828</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1319227921440933</v>
+        <v>0.1279594057609102</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03569591896700674</v>
+        <v>0.04458549151432389</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3795493257.831098</v>
+        <v>3992992896.53308</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09782647466088812</v>
+        <v>0.07582684215295621</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03044377571979054</v>
+        <v>0.02034563613212087</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2537553799.137731</v>
+        <v>2881678190.709559</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1684147068842258</v>
+        <v>0.1698136701247561</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03058599639409787</v>
+        <v>0.02862624324228382</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1547052382.585902</v>
+        <v>1825462005.906565</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09529772615908505</v>
+        <v>0.0960142295039349</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03639551298529501</v>
+        <v>0.04381208543504127</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -878,13 +878,13 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1987050793.893697</v>
+        <v>2676469590.56898</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07954842203362418</v>
+        <v>0.08135317974881928</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03963142053287184</v>
+        <v>0.03963140571144059</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4071756291.208821</v>
+        <v>4814296893.093977</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1472562521528252</v>
+        <v>0.1723066398347481</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03412718918741464</v>
+        <v>0.04558676935628839</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2588568955.322862</v>
+        <v>3879722328.649322</v>
       </c>
       <c r="F18" t="n">
-        <v>0.179915516969143</v>
+        <v>0.136848561864183</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03321107503366502</v>
+        <v>0.03322528252834508</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1212670324.61547</v>
+        <v>1138884090.00708</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1232837973400728</v>
+        <v>0.1265670393521232</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02231942451063627</v>
+        <v>0.01832346490972388</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2209510866.825797</v>
+        <v>1697163662.138043</v>
       </c>
       <c r="F20" t="n">
-        <v>0.157741340266759</v>
+        <v>0.1109539418403922</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02125389248505813</v>
+        <v>0.02896956563203069</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,16 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2494709709.297733</v>
+        <v>2586724858.317294</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09606539217103729</v>
+        <v>0.08233987291732725</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0413599801834359</v>
+        <v>0.03937522837337267</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3598427376.2961</v>
+        <v>2889577320.54126</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1204949910301663</v>
+        <v>0.1324714499520191</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05669483415915808</v>
+        <v>0.05623045508931319</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1281188720.545537</v>
+        <v>1237039778.071925</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1154162605179863</v>
+        <v>0.1370003978192218</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03901551872163594</v>
+        <v>0.05077643681871934</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2963431887.230883</v>
+        <v>2504732090.887954</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1085670761290088</v>
+        <v>0.1197771821546787</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03309320731279924</v>
+        <v>0.02420817554860822</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1119822719.92626</v>
+        <v>1353784846.575382</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1042963029366675</v>
+        <v>0.09520541445155158</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02675634531593266</v>
+        <v>0.02752886903192997</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1165016484.957607</v>
+        <v>1102705608.91558</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1008275686003761</v>
+        <v>0.09961368669869609</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03070206379295244</v>
+        <v>0.02548812970793294</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3891935434.333262</v>
+        <v>3537826535.400238</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1203060510864253</v>
+        <v>0.1514449078049339</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02666988551554422</v>
+        <v>0.02615675905412811</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3376940630.754784</v>
+        <v>2729502076.573156</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1414502989116185</v>
+        <v>0.1006029072835145</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03676914717544712</v>
+        <v>0.04099210696274577</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5443061527.750645</v>
+        <v>4200052508.892352</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1136662553852893</v>
+        <v>0.1209029227560331</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03612927793999706</v>
+        <v>0.03353164125056769</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1605532661.014938</v>
+        <v>1600541903.449347</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1378323795976</v>
+        <v>0.1207804391662252</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03110403114243352</v>
+        <v>0.02435839649730007</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1116779100.467985</v>
+        <v>1405457909.782984</v>
       </c>
       <c r="F31" t="n">
-        <v>0.112108681587968</v>
+        <v>0.09678633748211259</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04442960088720928</v>
+        <v>0.03766179500885898</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1737797422.697489</v>
+        <v>1894960712.744138</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09745607591322611</v>
+        <v>0.08794294983411939</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03728256070783907</v>
+        <v>0.03453145811313339</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2835349388.355591</v>
+        <v>2397893723.713901</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1409391562177865</v>
+        <v>0.1864247574264745</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04735193853944642</v>
+        <v>0.06004596839308375</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1125376703.143566</v>
+        <v>1324334202.236526</v>
       </c>
       <c r="F34" t="n">
-        <v>0.11745684769066</v>
+        <v>0.1165899602327302</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02648576607718868</v>
+        <v>0.02670965907081263</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>916683791.4738737</v>
+        <v>1092859339.730341</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07676069645688297</v>
+        <v>0.09014998155251476</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03314481301954656</v>
+        <v>0.03217496829542314</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2802558360.933369</v>
+        <v>2745553321.382034</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1628761964344685</v>
+        <v>0.1811483406358442</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02508458759979902</v>
+        <v>0.02629120586109152</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1855279655.110294</v>
+        <v>2306773166.938221</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09514708562039893</v>
+        <v>0.1084606834063772</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03462672671207748</v>
+        <v>0.02818463059595675</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1912624140.813535</v>
+        <v>2023100184.794391</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07785140106019368</v>
+        <v>0.1078818337631203</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03002059271785731</v>
+        <v>0.03138300368022298</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1726628971.46835</v>
+        <v>2224632347.027072</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1225454041259068</v>
+        <v>0.1323877823453502</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02616795957404639</v>
+        <v>0.03093424623283757</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1462054662.492785</v>
+        <v>1619535670.36413</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1463458266311988</v>
+        <v>0.1138681025524975</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04206086148136487</v>
+        <v>0.0539922914721418</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2305468398.367806</v>
+        <v>2880695556.814285</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1184728283051457</v>
+        <v>0.1029893959892679</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04550092517807078</v>
+        <v>0.04185650945215971</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3436769125.248187</v>
+        <v>2749702893.413368</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1016826963847716</v>
+        <v>0.08674629378893475</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02970638595429734</v>
+        <v>0.04178441385002131</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2161925214.683913</v>
+        <v>2993609218.633813</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1519958390331531</v>
+        <v>0.1979176858572064</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01905194633032647</v>
+        <v>0.01937358366306256</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1714559449.814247</v>
+        <v>1918847772.094893</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08452167986603057</v>
+        <v>0.1007066833149117</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03256960913549003</v>
+        <v>0.02909622134296509</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2230773317.897194</v>
+        <v>1832538527.867538</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1847895620938167</v>
+        <v>0.121444353708527</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05129753325036662</v>
+        <v>0.05391471393972087</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3774913642.770409</v>
+        <v>4512022084.43557</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1735416160082345</v>
+        <v>0.1552676047737757</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05417607112784726</v>
+        <v>0.04795142814955578</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3765038206.526241</v>
+        <v>4555833021.360304</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1943822723383753</v>
+        <v>0.1713758652144716</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03938875009232816</v>
+        <v>0.04385258923560082</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4525958144.697017</v>
+        <v>3746481615.480725</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09151076761313384</v>
+        <v>0.1078706143423556</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02896412145628654</v>
+        <v>0.03873406240120476</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1524936141.909564</v>
+        <v>1908064842.69656</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1612942294406128</v>
+        <v>0.1510760701302313</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04279134422063982</v>
+        <v>0.03158877061439535</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3099140938.17683</v>
+        <v>3309215950.090511</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1506667306821865</v>
+        <v>0.1571661895336817</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03303241428325514</v>
+        <v>0.04126817868624583</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1194944838.072187</v>
+        <v>1290742084.12333</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1659959442947176</v>
+        <v>0.1308218453045399</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0514979677232354</v>
+        <v>0.04807511722108527</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4383761634.635001</v>
+        <v>4852193728.135985</v>
       </c>
       <c r="F52" t="n">
-        <v>0.130754774622954</v>
+        <v>0.1034073491896702</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05175531044852953</v>
+        <v>0.04782168344663233</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3648278135.334374</v>
+        <v>2295917895.057524</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1685820384190806</v>
+        <v>0.1245811397408195</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03284512015382902</v>
+        <v>0.03011373278538831</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3677157095.45904</v>
+        <v>4923355161.554628</v>
       </c>
       <c r="F54" t="n">
-        <v>0.12940388844128</v>
+        <v>0.1324570080053125</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04292637616315285</v>
+        <v>0.04543158000131299</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3386679357.935719</v>
+        <v>4659673038.767062</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1954356576541055</v>
+        <v>0.2094110605469941</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03025659757437451</v>
+        <v>0.03222130205286466</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1224644827.167708</v>
+        <v>1818583567.67558</v>
       </c>
       <c r="F56" t="n">
-        <v>0.147278202360925</v>
+        <v>0.1484080284348938</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03544878757656026</v>
+        <v>0.04597520747992906</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4107388361.423327</v>
+        <v>2823201898.79581</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1662236175969906</v>
+        <v>0.157004458047225</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01871550852337118</v>
+        <v>0.0211520718818606</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1867747724.79219</v>
+        <v>1580693802.804623</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1825952501221887</v>
+        <v>0.1733858765988323</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03010505760528887</v>
+        <v>0.02413197539742222</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4547615056.06924</v>
+        <v>4240663150.668232</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0908737003181818</v>
+        <v>0.08451155852183218</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03479877067009819</v>
+        <v>0.04087992883881335</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2766726182.548693</v>
+        <v>2725074487.774337</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1606493852432902</v>
+        <v>0.1839835995817578</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03235928454241248</v>
+        <v>0.02803102341192986</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3364015695.249817</v>
+        <v>2597778019.251878</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1616842740245891</v>
+        <v>0.1373128182989124</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03275539389224135</v>
+        <v>0.0214283259454862</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1326831796.724241</v>
+        <v>1326915403.321496</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1610244587295825</v>
+        <v>0.1183211958326962</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04301441423930787</v>
+        <v>0.04132289089309101</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5271823861.322383</v>
+        <v>3891820017.941329</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1024638878714171</v>
+        <v>0.1041422057606087</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03944973598394688</v>
+        <v>0.0421553185637423</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3963278668.709229</v>
+        <v>4214542116.521036</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1182493032317285</v>
+        <v>0.1732329151099869</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02258476036585896</v>
+        <v>0.0313183436864803</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4000138533.511141</v>
+        <v>4810277142.20142</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1469037340887302</v>
+        <v>0.1203620138861644</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02752862299846094</v>
+        <v>0.03037817364024213</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4472354298.510008</v>
+        <v>3747311715.681087</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1218514869715574</v>
+        <v>0.1125929215714083</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03982520548613062</v>
+        <v>0.04196467934408401</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2992054864.53011</v>
+        <v>2113870993.302902</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0968057158536923</v>
+        <v>0.09331214451443418</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03906604666631321</v>
+        <v>0.03313994118534266</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4341059150.935563</v>
+        <v>5015337246.441607</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1596876203854095</v>
+        <v>0.119373679659081</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03162934865738672</v>
+        <v>0.04175854249382219</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2362,16 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2347243471.730937</v>
+        <v>2480248045.359695</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1422191664491187</v>
+        <v>0.1572842524649248</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04047386774428167</v>
+        <v>0.04467446979826828</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3270704200.118268</v>
+        <v>2701716503.031996</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1032016566771433</v>
+        <v>0.1030762084847566</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04930490850161455</v>
+        <v>0.0411693285655265</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4399956977.960075</v>
+        <v>5641600332.112295</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1542962401206134</v>
+        <v>0.1599895741881479</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02676648694245671</v>
+        <v>0.02613999558778632</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1701720245.395802</v>
+        <v>1726718649.347744</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08913438370887179</v>
+        <v>0.07403436721147276</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04159406144909205</v>
+        <v>0.04692382434632979</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2798628351.21512</v>
+        <v>3218120594.109934</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08867216887072162</v>
+        <v>0.1086226889378596</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04649305481574942</v>
+        <v>0.05119308034326995</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3329024710.708819</v>
+        <v>3309393983.71178</v>
       </c>
       <c r="F74" t="n">
-        <v>0.120152077100002</v>
+        <v>0.1294261309454753</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02471389177876174</v>
+        <v>0.02959788546991556</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2430511795.091051</v>
+        <v>2242550060.908336</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1039879991317295</v>
+        <v>0.1327372472373017</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02292671689927565</v>
+        <v>0.03766578888989828</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5136103823.279271</v>
+        <v>3780374495.417567</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09549489679385445</v>
+        <v>0.1022990642933954</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02556630427134676</v>
+        <v>0.02607570198591014</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2152701286.805115</v>
+        <v>1741500303.802319</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1839614623838955</v>
+        <v>0.1438251713910501</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02490752898327423</v>
+        <v>0.01929279529072735</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3623824574.780934</v>
+        <v>3715206198.905695</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1041510716337737</v>
+        <v>0.1126398711352414</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03542926198767443</v>
+        <v>0.03777885007095886</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1848677326.197969</v>
+        <v>1299345120.000374</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1306624663527688</v>
+        <v>0.1620059212580041</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02648508323655243</v>
+        <v>0.02610173430890468</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4751440647.664499</v>
+        <v>3529735745.642529</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1097047274810985</v>
+        <v>0.08181662500786288</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03279725882768476</v>
+        <v>0.03807289224756263</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4824576750.294794</v>
+        <v>3971713545.409284</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08500985417563334</v>
+        <v>0.1368041466179927</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02383266083191224</v>
+        <v>0.02272820905706882</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5351798107.894618</v>
+        <v>4978315562.063554</v>
       </c>
       <c r="F82" t="n">
-        <v>0.161414528079395</v>
+        <v>0.1644439406643035</v>
       </c>
       <c r="G82" t="n">
-        <v>0.028389457375381</v>
+        <v>0.02816105111357213</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1534310406.365332</v>
+        <v>1910183677.156502</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1340669260058115</v>
+        <v>0.1277539427562383</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04138141759102855</v>
+        <v>0.03381487568537186</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2334967938.504706</v>
+        <v>1772054906.281067</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07852542265943216</v>
+        <v>0.1014703510958793</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03683739115266717</v>
+        <v>0.04801299188392531</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2741078780.387158</v>
+        <v>3439630691.294607</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1174142456589984</v>
+        <v>0.1294993179924315</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03904752096216484</v>
+        <v>0.05285027287363461</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2748008290.610901</v>
+        <v>2556647572.65815</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1705911944080032</v>
+        <v>0.1185276326460044</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02092103742315098</v>
+        <v>0.01855779085233181</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>983398790.9434333</v>
+        <v>975884490.8220294</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1516134571651549</v>
+        <v>0.1459210924601402</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03951006605916719</v>
+        <v>0.04148021893414523</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,16 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3590568696.138217</v>
+        <v>2252951688.946934</v>
       </c>
       <c r="F88" t="n">
-        <v>0.111097440306033</v>
+        <v>0.1526119859891776</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03215611351484685</v>
+        <v>0.0356308944079451</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3382282624.137542</v>
+        <v>3280378373.678661</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1174399740077326</v>
+        <v>0.1427777800552666</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03725659389722517</v>
+        <v>0.02973052231078705</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1947666237.334694</v>
+        <v>2078476956.951093</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09576483636975319</v>
+        <v>0.08717025118293893</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04503255467849449</v>
+        <v>0.05246960249650635</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1962967589.752224</v>
+        <v>1940430346.655447</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1284170567682492</v>
+        <v>0.154621669604554</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05274319851616296</v>
+        <v>0.06044009491707645</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2196692728.017641</v>
+        <v>2628872247.512754</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0851961005034485</v>
+        <v>0.07369434591859496</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04143534281333486</v>
+        <v>0.03120684740989341</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4473041645.084808</v>
+        <v>4442081746.772936</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1001890383959837</v>
+        <v>0.1153537617971201</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03981572508317334</v>
+        <v>0.04499611485050217</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2250723953.703437</v>
+        <v>1539527798.102736</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1280483994696297</v>
+        <v>0.1230531829445325</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03683648712239074</v>
+        <v>0.02897463824451698</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3172117533.300618</v>
+        <v>2183908387.24228</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1362532239147517</v>
+        <v>0.1312556230429286</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04622157687477696</v>
+        <v>0.03603966943408461</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1695023682.765866</v>
+        <v>1584370018.917082</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09546978432425456</v>
+        <v>0.1286997025015629</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04279884527477613</v>
+        <v>0.03613138047027864</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4135838774.956073</v>
+        <v>4616338063.914953</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1425855816970986</v>
+        <v>0.1314949082770968</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02255956066272871</v>
+        <v>0.02164717521118587</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2713490474.990954</v>
+        <v>3012779015.759217</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1057360360334698</v>
+        <v>0.1216804882502176</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0207144207576621</v>
+        <v>0.02745135852696417</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2682460103.391919</v>
+        <v>3049743328.65523</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09487057732314015</v>
+        <v>0.1089089920539566</v>
       </c>
       <c r="G99" t="n">
-        <v>0.021837641496683</v>
+        <v>0.02221409444960917</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3916603730.491207</v>
+        <v>3825507179.405527</v>
       </c>
       <c r="F100" t="n">
-        <v>0.112418944016671</v>
+        <v>0.1193423121266415</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02332094582261081</v>
+        <v>0.0258261889507197</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2326359635.87362</v>
+        <v>3578650742.603563</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2082865019943821</v>
+        <v>0.1862189774511964</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04554767471063235</v>
+        <v>0.04342105282502242</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_271.xlsx
+++ b/output/fit_clients/fit_round_271.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1539506490.579099</v>
+        <v>1652354746.183491</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09642163102347151</v>
+        <v>0.1046439728357937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04382536713921013</v>
+        <v>0.03698326115814642</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2432089263.824339</v>
+        <v>2497276133.377761</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1847104734901163</v>
+        <v>0.1540869285886169</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04411643024574238</v>
+        <v>0.04934933403618385</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3598269705.021348</v>
+        <v>3230346399.125718</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1048077938358495</v>
+        <v>0.1199906827431921</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03369532949136703</v>
+        <v>0.03253208350743893</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>145</v>
+      </c>
+      <c r="J4" t="n">
+        <v>269</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2606736529.053769</v>
+        <v>2708247783.540099</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07984099962386655</v>
+        <v>0.09860312609866076</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04189291555016769</v>
+        <v>0.04173014070386835</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>108</v>
+      </c>
+      <c r="J5" t="n">
+        <v>259</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2084104639.279383</v>
+        <v>1834957992.533123</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1355111160772768</v>
+        <v>0.09110811056075696</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04876947761675824</v>
+        <v>0.03897979657472413</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +676,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2189294959.575023</v>
+        <v>2654436377.113424</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07502409747709317</v>
+        <v>0.09079096746101942</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04204401635137864</v>
+        <v>0.03073876284369129</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2577370272.456838</v>
+        <v>3185769334.419028</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1843557526180043</v>
+        <v>0.1832958367243824</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02152413810440351</v>
+        <v>0.02983074243010108</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>71</v>
+      </c>
+      <c r="J8" t="n">
+        <v>269</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +746,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2298301375.510095</v>
+        <v>1439387661.909609</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1892862822529164</v>
+        <v>0.1777145853956393</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0312474688669898</v>
+        <v>0.02287352389285563</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3585316135.37189</v>
+        <v>5528701716.998126</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1725525888691752</v>
+        <v>0.1985281478045302</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0366938471256173</v>
+        <v>0.04277394002068629</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>244</v>
+      </c>
+      <c r="J10" t="n">
+        <v>271</v>
+      </c>
+      <c r="K10" t="n">
+        <v>97.57387972346284</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +818,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4091877806.206059</v>
+        <v>3231440232.433591</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1858312162631098</v>
+        <v>0.1681376341958388</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03520515029856967</v>
+        <v>0.04826592761554839</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>110</v>
+      </c>
+      <c r="J11" t="n">
+        <v>268</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2234590587.845828</v>
+        <v>2643435031.676475</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1279594057609102</v>
+        <v>0.1642709745464276</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04458549151432389</v>
+        <v>0.04801998537760538</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +882,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3992992896.53308</v>
+        <v>4568492081.990129</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07582684215295621</v>
+        <v>0.07436077446981984</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02034563613212087</v>
+        <v>0.0241178377446368</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>138</v>
+      </c>
+      <c r="J13" t="n">
+        <v>270</v>
+      </c>
+      <c r="K13" t="n">
+        <v>95.15493119641694</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +919,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2881678190.709559</v>
+        <v>2445039282.941083</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1698136701247561</v>
+        <v>0.1418280055234056</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02862624324228382</v>
+        <v>0.03185864927562101</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>55</v>
+      </c>
+      <c r="J14" t="n">
+        <v>270</v>
+      </c>
+      <c r="K14" t="n">
+        <v>37.24709318515457</v>
       </c>
     </row>
     <row r="15">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1825462005.906565</v>
+        <v>1288620360.881874</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0960142295039349</v>
+        <v>0.1073765464973751</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04381208543504127</v>
+        <v>0.04914797430438454</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2676469590.56898</v>
+        <v>1865251611.535598</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08135317974881928</v>
+        <v>0.116172502189529</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03963140571144059</v>
+        <v>0.03493601239185311</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1026,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4814296893.093977</v>
+        <v>4131606867.223598</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1723066398347481</v>
+        <v>0.1534067493613311</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04558676935628839</v>
+        <v>0.04796111335781722</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>129</v>
+      </c>
+      <c r="J17" t="n">
+        <v>271</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3879722328.649322</v>
+        <v>2557573001.79259</v>
       </c>
       <c r="F18" t="n">
-        <v>0.136848561864183</v>
+        <v>0.1470775216039993</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03322528252834508</v>
+        <v>0.02322490930720593</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>68</v>
+      </c>
+      <c r="J18" t="n">
+        <v>269</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1138884090.00708</v>
+        <v>1160118147.244188</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1265670393521232</v>
+        <v>0.1624333704681493</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01832346490972388</v>
+        <v>0.02620308205691517</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1697163662.138043</v>
+        <v>2383194604.384297</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1109539418403922</v>
+        <v>0.1047029165630437</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02896956563203069</v>
+        <v>0.0298939291397749</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1172,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2586724858.317294</v>
+        <v>1736410116.706903</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08233987291732725</v>
+        <v>0.08862580370012588</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03937522837337267</v>
+        <v>0.04234783686812765</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2889577320.54126</v>
+        <v>3156097782.610539</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1324714499520191</v>
+        <v>0.1143146418462565</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05623045508931319</v>
+        <v>0.05681663795866545</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>71</v>
+      </c>
+      <c r="J22" t="n">
+        <v>270</v>
+      </c>
+      <c r="K22" t="n">
+        <v>53.45417865350529</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1244,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1237039778.071925</v>
+        <v>1422731995.338054</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1370003978192218</v>
+        <v>0.1527399251626085</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05077643681871934</v>
+        <v>0.04837917492121883</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2504732090.887954</v>
+        <v>2852470884.245942</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1197771821546787</v>
+        <v>0.1130861416902603</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02420817554860822</v>
+        <v>0.03341365005901734</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>81</v>
+      </c>
+      <c r="J24" t="n">
+        <v>266</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1353784846.575382</v>
+        <v>1363617660.511429</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09520541445155158</v>
+        <v>0.1009168082573024</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02752886903192997</v>
+        <v>0.0217444127688841</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1102705608.91558</v>
+        <v>1057975260.004916</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09961368669869609</v>
+        <v>0.07784453999446446</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02548812970793294</v>
+        <v>0.02495537097193409</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3537826535.400238</v>
+        <v>3069652577.077644</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1514449078049339</v>
+        <v>0.1539498491562784</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02615675905412811</v>
+        <v>0.02360028644595963</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>111</v>
+      </c>
+      <c r="J27" t="n">
+        <v>269</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1413,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2729502076.573156</v>
+        <v>3328810638.200367</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1006029072835145</v>
+        <v>0.1362581422044742</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04099210696274577</v>
+        <v>0.04635986648694756</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>55</v>
+      </c>
+      <c r="J28" t="n">
+        <v>270</v>
+      </c>
+      <c r="K28" t="n">
+        <v>66.83096302659303</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4200052508.892352</v>
+        <v>5540900417.763672</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1209029227560331</v>
+        <v>0.09270714325751404</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03353164125056769</v>
+        <v>0.0361271610963887</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>259</v>
+      </c>
+      <c r="J29" t="n">
+        <v>271</v>
+      </c>
+      <c r="K29" t="n">
+        <v>97.23419203896763</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1493,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1600541903.449347</v>
+        <v>2395009670.747962</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1207804391662252</v>
+        <v>0.1365207412016228</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02435839649730007</v>
+        <v>0.02905298634422229</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1405457909.782984</v>
+        <v>953700574.6920668</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09678633748211259</v>
+        <v>0.06903676992891997</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03766179500885898</v>
+        <v>0.05015882249105174</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1894960712.744138</v>
+        <v>1834487484.396118</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08794294983411939</v>
+        <v>0.1170927254014228</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03453145811313339</v>
+        <v>0.02528484959165435</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2397893723.713901</v>
+        <v>2103019940.958713</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1864247574264745</v>
+        <v>0.1386737414824253</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06004596839308375</v>
+        <v>0.0530955670583217</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1324334202.236526</v>
+        <v>1488645501.674587</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1165899602327302</v>
+        <v>0.1003112742523209</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02670965907081263</v>
+        <v>0.02353607821964444</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1668,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1092859339.730341</v>
+        <v>1335557878.485957</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09014998155251476</v>
+        <v>0.07605531298815911</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03217496829542314</v>
+        <v>0.04330083669672852</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2745553321.382034</v>
+        <v>1985544766.707373</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1811483406358442</v>
+        <v>0.1773554886480396</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02629120586109152</v>
+        <v>0.02774377775748409</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2306773166.938221</v>
+        <v>1820166272.405805</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1084606834063772</v>
+        <v>0.09650669212668972</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02818463059595675</v>
+        <v>0.03087541639024191</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2023100184.794391</v>
+        <v>1417507452.915149</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1078818337631203</v>
+        <v>0.1125094834406632</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03138300368022298</v>
+        <v>0.03623800413823824</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2224632347.027072</v>
+        <v>1483504228.316161</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1323877823453502</v>
+        <v>0.1595701298025649</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03093424623283757</v>
+        <v>0.02763586350261102</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1619535670.36413</v>
+        <v>1761680089.389123</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1138681025524975</v>
+        <v>0.1456804476660688</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0539922914721418</v>
+        <v>0.04886385290395892</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2880695556.814285</v>
+        <v>2000942450.473291</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1029893959892679</v>
+        <v>0.1519819674211938</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04185650945215971</v>
+        <v>0.02897388424529456</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2749702893.413368</v>
+        <v>4120457773.757576</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08674629378893475</v>
+        <v>0.107439043772282</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04178441385002131</v>
+        <v>0.03566383344089497</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>114</v>
+      </c>
+      <c r="J42" t="n">
+        <v>271</v>
+      </c>
+      <c r="K42" t="n">
+        <v>105.1475977616692</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2993609218.633813</v>
+        <v>1986179605.181501</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1979176858572064</v>
+        <v>0.19010550977112</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01937358366306256</v>
+        <v>0.0258479346513333</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1918847772.094893</v>
+        <v>2100510193.550175</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1007066833149117</v>
+        <v>0.0813438833467052</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02909622134296509</v>
+        <v>0.02297077982761669</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1832538527.867538</v>
+        <v>1565008583.383366</v>
       </c>
       <c r="F45" t="n">
-        <v>0.121444353708527</v>
+        <v>0.1532390213200131</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05391471393972087</v>
+        <v>0.04676871339741297</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4512022084.43557</v>
+        <v>3942483609.436815</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1552676047737757</v>
+        <v>0.1429189705296934</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04795142814955578</v>
+        <v>0.03980567713097813</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>159</v>
+      </c>
+      <c r="J46" t="n">
+        <v>270</v>
+      </c>
+      <c r="K46" t="n">
+        <v>86.36074160354751</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2092,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4555833021.360304</v>
+        <v>4175987205.78519</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1713758652144716</v>
+        <v>0.1312120063413374</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04385258923560082</v>
+        <v>0.04615879363570742</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>122</v>
+      </c>
+      <c r="J47" t="n">
+        <v>270</v>
+      </c>
+      <c r="K47" t="n">
+        <v>78.17202202600903</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2123,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3746481615.480725</v>
+        <v>4356934916.083872</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1078706143423556</v>
+        <v>0.08785805642359579</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03873406240120476</v>
+        <v>0.02522703796622015</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>134</v>
+      </c>
+      <c r="J48" t="n">
+        <v>271</v>
+      </c>
+      <c r="K48" t="n">
+        <v>100.9456019863843</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2166,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1908064842.69656</v>
+        <v>1393472731.551092</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1510760701302313</v>
+        <v>0.1495381268404019</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03158877061439535</v>
+        <v>0.04081422388161723</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2195,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3309215950.090511</v>
+        <v>3763789397.049926</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1571661895336817</v>
+        <v>0.1224288691636827</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04126817868624583</v>
+        <v>0.03957322464035982</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>87</v>
+      </c>
+      <c r="J50" t="n">
+        <v>271</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1290742084.12333</v>
+        <v>1410644924.263606</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1308218453045399</v>
+        <v>0.1214449912009087</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04807511722108527</v>
+        <v>0.04133572330627545</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2265,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4852193728.135985</v>
+        <v>4802796832.451479</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1034073491896702</v>
+        <v>0.1269449819030488</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04782168344663233</v>
+        <v>0.04364842642016915</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>171</v>
+      </c>
+      <c r="J52" t="n">
+        <v>271</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,22 +2300,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2295917895.057524</v>
+        <v>3093066200.766813</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1245811397408195</v>
+        <v>0.1838502170783769</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03011373278538831</v>
+        <v>0.03232018317216336</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>38</v>
+      </c>
+      <c r="J53" t="n">
+        <v>270</v>
+      </c>
+      <c r="K53" t="n">
+        <v>53.70185800755313</v>
       </c>
     </row>
     <row r="54">
@@ -1942,17 +2343,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4923355161.554628</v>
+        <v>3699205038.285903</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1324570080053125</v>
+        <v>0.1472342592998994</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04543158000131299</v>
+        <v>0.05180364119091475</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>143</v>
+      </c>
+      <c r="J54" t="n">
+        <v>271</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2372,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4659673038.767062</v>
+        <v>4006556856.263576</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2094110605469941</v>
+        <v>0.2075403568528993</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03222130205286466</v>
+        <v>0.03164208739026182</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>122</v>
+      </c>
+      <c r="J55" t="n">
+        <v>270</v>
+      </c>
+      <c r="K55" t="n">
+        <v>88.90146243397882</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2409,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1818583567.67558</v>
+        <v>1797715007.069356</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1484080284348938</v>
+        <v>0.09996140564408125</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04597520747992906</v>
+        <v>0.0574183162181667</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2444,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2823201898.79581</v>
+        <v>4130435169.524858</v>
       </c>
       <c r="F57" t="n">
-        <v>0.157004458047225</v>
+        <v>0.1600962190579396</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0211520718818606</v>
+        <v>0.02281230929468424</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>109</v>
+      </c>
+      <c r="J57" t="n">
+        <v>270</v>
+      </c>
+      <c r="K57" t="n">
+        <v>96.0424749055059</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2487,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1580693802.804623</v>
+        <v>1309573718.365858</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1733858765988323</v>
+        <v>0.1445241840954441</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02413197539742222</v>
+        <v>0.03641771787868198</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2516,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4240663150.668232</v>
+        <v>3444947761.173552</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08451155852183218</v>
+        <v>0.09566215814165838</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04087992883881335</v>
+        <v>0.03891068790258994</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>131</v>
+      </c>
+      <c r="J59" t="n">
+        <v>270</v>
+      </c>
+      <c r="K59" t="n">
+        <v>61.00027252532867</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2553,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2725074487.774337</v>
+        <v>3504207259.988397</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1839835995817578</v>
+        <v>0.1862638661425501</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02803102341192986</v>
+        <v>0.02707752065238355</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>40</v>
+      </c>
+      <c r="J60" t="n">
+        <v>271</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2588,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2597778019.251878</v>
+        <v>2415852277.446859</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1373128182989124</v>
+        <v>0.1736728081085588</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0214283259454862</v>
+        <v>0.03275152948745681</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>259</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2623,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1326915403.321496</v>
+        <v>1805355396.392963</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1183211958326962</v>
+        <v>0.1825628769735544</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04132289089309101</v>
+        <v>0.03009487426538055</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2658,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3891820017.941329</v>
+        <v>3554181353.013327</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1041422057606087</v>
+        <v>0.08227500401226222</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0421553185637423</v>
+        <v>0.04312471803590843</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>131</v>
+      </c>
+      <c r="J63" t="n">
+        <v>271</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2693,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4214542116.521036</v>
+        <v>3782220537.541912</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1732329151099869</v>
+        <v>0.1725512966955684</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0313183436864803</v>
+        <v>0.02988839741087776</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>133</v>
+      </c>
+      <c r="J64" t="n">
+        <v>271</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2728,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4810277142.20142</v>
+        <v>5006966147.378117</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1203620138861644</v>
+        <v>0.122251507857575</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03037817364024213</v>
+        <v>0.02037141122362204</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>217</v>
+      </c>
+      <c r="J65" t="n">
+        <v>271</v>
+      </c>
+      <c r="K65" t="n">
+        <v>96.51110845009433</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2771,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3747311715.681087</v>
+        <v>3696101016.610538</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1125929215714083</v>
+        <v>0.1287974704175049</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04196467934408401</v>
+        <v>0.04703290327023987</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>134</v>
+      </c>
+      <c r="J66" t="n">
+        <v>270</v>
+      </c>
+      <c r="K66" t="n">
+        <v>70.30299218950408</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2808,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2113870993.302902</v>
+        <v>3281320594.321625</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09331214451443418</v>
+        <v>0.08704869086113819</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03313994118534266</v>
+        <v>0.03881917003027809</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2837,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5015337246.441607</v>
+        <v>5949815049.142399</v>
       </c>
       <c r="F68" t="n">
-        <v>0.119373679659081</v>
+        <v>0.1291487511364457</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04175854249382219</v>
+        <v>0.04268501620098697</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>139</v>
+      </c>
+      <c r="J68" t="n">
+        <v>271</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2878,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2480248045.359695</v>
+        <v>1899423734.387786</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1572842524649248</v>
+        <v>0.1223435031293842</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04467446979826828</v>
+        <v>0.04588254428619208</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,16 +2913,25 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2701716503.031996</v>
+        <v>3318932437.485833</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1030762084847566</v>
+        <v>0.08572289301834073</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0411693285655265</v>
+        <v>0.0375976349331666</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>40</v>
+      </c>
+      <c r="J70" t="n">
+        <v>270</v>
+      </c>
+      <c r="K70" t="n">
+        <v>59.06134317376188</v>
       </c>
     </row>
     <row r="71">
@@ -2412,23 +2944,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5641600332.112295</v>
+        <v>5260324722.030474</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1599895741881479</v>
+        <v>0.1277926960221107</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02613999558778632</v>
+        <v>0.03354039393753066</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>204</v>
+      </c>
+      <c r="J71" t="n">
+        <v>271</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1726718649.347744</v>
+        <v>2170586598.398752</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07403436721147276</v>
+        <v>0.08783576537124918</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04692382434632979</v>
+        <v>0.04504070016904865</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3020,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3218120594.109934</v>
+        <v>2926635225.749669</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1086226889378596</v>
+        <v>0.08484174453879789</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05119308034326995</v>
+        <v>0.0347773755949182</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>16</v>
+      </c>
+      <c r="J73" t="n">
+        <v>252</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3309393983.71178</v>
+        <v>3037887656.025655</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1294261309454753</v>
+        <v>0.1297602898077786</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02959788546991556</v>
+        <v>0.03342445753720542</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>76</v>
+      </c>
+      <c r="J74" t="n">
+        <v>268</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3090,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2242550060.908336</v>
+        <v>1808882033.087286</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1327372472373017</v>
+        <v>0.1024013773165173</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03766578888989828</v>
+        <v>0.02870815306055885</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3125,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3780374495.417567</v>
+        <v>5200435400.996242</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1022990642933954</v>
+        <v>0.07723637775730258</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02607570198591014</v>
+        <v>0.03007138822515727</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>127</v>
+      </c>
+      <c r="J76" t="n">
+        <v>270</v>
+      </c>
+      <c r="K76" t="n">
+        <v>86.50805337505329</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1741500303.802319</v>
+        <v>1863919250.155236</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1438251713910501</v>
+        <v>0.1592668100223211</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01929279529072735</v>
+        <v>0.03075314969473928</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3191,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3715206198.905695</v>
+        <v>4599869318.248714</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1126398711352414</v>
+        <v>0.1232739076580582</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03777885007095886</v>
+        <v>0.04490365920907084</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>136</v>
+      </c>
+      <c r="J78" t="n">
+        <v>271</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3232,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1299345120.000374</v>
+        <v>1353237432.681506</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1620059212580041</v>
+        <v>0.154412454174107</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02610173430890468</v>
+        <v>0.02510570328222428</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3267,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3529735745.642529</v>
+        <v>4299735368.919734</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08181662500786288</v>
+        <v>0.07177620608025144</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03807289224756263</v>
+        <v>0.03622187537578492</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>132</v>
+      </c>
+      <c r="J80" t="n">
+        <v>271</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3296,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3971713545.409284</v>
+        <v>5218450650.589262</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1368041466179927</v>
+        <v>0.09895353288423821</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02272820905706882</v>
+        <v>0.02374345108877812</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>124</v>
+      </c>
+      <c r="J81" t="n">
+        <v>271</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4978315562.063554</v>
+        <v>4240813974.88899</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1644439406643035</v>
+        <v>0.2156655206734704</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02816105111357213</v>
+        <v>0.02749973891590326</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>202</v>
+      </c>
+      <c r="J82" t="n">
+        <v>270</v>
+      </c>
+      <c r="K82" t="n">
+        <v>94.28797090993112</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1910183677.156502</v>
+        <v>1894636420.083949</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1277539427562383</v>
+        <v>0.1480077662194041</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03381487568537186</v>
+        <v>0.0396972783041739</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1772054906.281067</v>
+        <v>2322017102.095464</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1014703510958793</v>
+        <v>0.07375557703349366</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04801299188392531</v>
+        <v>0.04560365245750041</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3439630691.294607</v>
+        <v>2505404566.975867</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1294993179924315</v>
+        <v>0.1186502415371801</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05285027287363461</v>
+        <v>0.0399748637953618</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>37</v>
+      </c>
+      <c r="J85" t="n">
+        <v>265</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2556647572.65815</v>
+        <v>1762199932.73737</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1185276326460044</v>
+        <v>0.1325929333731796</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01855779085233181</v>
+        <v>0.01945397521714998</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3514,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>975884490.8220294</v>
+        <v>1409164884.971502</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1459210924601402</v>
+        <v>0.1457518198790571</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04148021893414523</v>
+        <v>0.02909730649055882</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2252951688.946934</v>
+        <v>2841416467.037616</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1526119859891776</v>
+        <v>0.1219172002460252</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0356308944079451</v>
+        <v>0.03941858702082159</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>38</v>
+      </c>
+      <c r="J88" t="n">
+        <v>255</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3584,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3280378373.678661</v>
+        <v>3495980163.723919</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1427777800552666</v>
+        <v>0.1276198666656668</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02973052231078705</v>
+        <v>0.03662436650987447</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>20</v>
+      </c>
+      <c r="J89" t="n">
+        <v>271</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2078476956.951093</v>
+        <v>1859130925.403491</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08717025118293893</v>
+        <v>0.1193432365376488</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05246960249650635</v>
+        <v>0.05611623137745162</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1940430346.655447</v>
+        <v>1761385709.802039</v>
       </c>
       <c r="F91" t="n">
-        <v>0.154621669604554</v>
+        <v>0.1773529386566064</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06044009491707645</v>
+        <v>0.04625626482033164</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2628872247.512754</v>
+        <v>2212049289.327583</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07369434591859496</v>
+        <v>0.08970874061604675</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03120684740989341</v>
+        <v>0.03484807121365543</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,17 +3724,24 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4442081746.772936</v>
+        <v>3231108089.810891</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1153537617971201</v>
+        <v>0.0880854029761063</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04499611485050217</v>
+        <v>0.04954227582203416</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>118</v>
+      </c>
+      <c r="J93" t="n">
+        <v>269</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1539527798.102736</v>
+        <v>1670088136.849829</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1230531829445325</v>
+        <v>0.1582621817999664</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02897463824451698</v>
+        <v>0.02677060901396624</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2183908387.24228</v>
+        <v>3242573195.032306</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1312556230429286</v>
+        <v>0.1180469577145008</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03603966943408461</v>
+        <v>0.03281159993519639</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1584370018.917082</v>
+        <v>1597162260.734402</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1286997025015629</v>
+        <v>0.1220052937717763</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03613138047027864</v>
+        <v>0.04591270371946481</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4616338063.914953</v>
+        <v>5375848505.663143</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1314949082770968</v>
+        <v>0.1541063747731722</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02164717521118587</v>
+        <v>0.02560106207559595</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>134</v>
+      </c>
+      <c r="J97" t="n">
+        <v>270</v>
+      </c>
+      <c r="K97" t="n">
+        <v>95.40817747544178</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3012779015.759217</v>
+        <v>2429647278.593513</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1216804882502176</v>
+        <v>0.1039792310056248</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02745135852696417</v>
+        <v>0.02662139687592433</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>65</v>
+      </c>
+      <c r="J98" t="n">
+        <v>266</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3049743328.65523</v>
+        <v>2493804806.482983</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1089089920539566</v>
+        <v>0.09501700691564519</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02221409444960917</v>
+        <v>0.02622643294218833</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3825507179.405527</v>
+        <v>3591388949.90658</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1193423121266415</v>
+        <v>0.1650574888991294</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0258261889507197</v>
+        <v>0.02163388131258635</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>114</v>
+      </c>
+      <c r="J100" t="n">
+        <v>271</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3578650742.603563</v>
+        <v>3579492435.034052</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1862189774511964</v>
+        <v>0.2054769447994137</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04342105282502242</v>
+        <v>0.03671136333898648</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>22</v>
+      </c>
+      <c r="J101" t="n">
+        <v>271</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
